--- a/NBA_2019-2020_Stats.xlsx
+++ b/NBA_2019-2020_Stats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joelsommerfeld/Desktop/University of Nebraska/Lab Tech/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joelsommerfeld/Desktop/Basketball/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3FE7CF0-705E-8541-A4A4-E72438B03896}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E83703E-705C-AB46-8807-9B1E548B4F7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{1C434600-942D-B946-8621-16AF2C33D323}"/>
   </bookViews>
@@ -1170,7 +1170,7 @@
   <dimension ref="A1:AD201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+      <selection activeCell="B1" sqref="B1:AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1179,91 +1179,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
